--- a/Zeef van Eratosthenes/Tijd analyses.xlsx
+++ b/Zeef van Eratosthenes/Tijd analyses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\HiPoPo-2021-hpp\Zeef van Eratosthenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761F8BE2-1C99-4E2D-970E-95D8758D29C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FF2FD2-710F-4FE1-B15B-C28E7B9CEF08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-3900" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
         <v>1000000000</v>
       </c>
       <c r="C5" s="1">
-        <v>157.82312130928</v>
+        <v>14.9571403264999</v>
       </c>
     </row>
   </sheetData>
